--- a/election_votar_data/LOHAGARA/CHARAMBA/152606/152606_com_1365_male_without_photo_77_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152606/152606_com_1365_male_without_photo_77_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="31.5" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="38.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>মিষ্টি জন্ম তারিখ:০১/০১/১৯৮৯</t>
+          <t>মিষ্টি</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১১০</t>
+          <t>১৫২৬০৬৮ ১৬১১০</t>
         </is>
       </c>
       <c r="D322" s="4" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২১/০২/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
@@ -14034,7 +14034,7 @@
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১১২</t>
+          <t>১৫২৬০৬৮ ১৬১১২</t>
         </is>
       </c>
       <c r="D324" s="4" t="inlineStr">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২৪/০৪/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১১৫</t>
+          <t>১৫২৬০৬৮ ১৬১১৫</t>
         </is>
       </c>
       <c r="D325" s="4" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৮/০৫/২০০১</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="C326" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১১৬</t>
+          <t>১৫২৬০৬৮ ১৬১১৬</t>
         </is>
       </c>
       <c r="D326" s="4" t="inlineStr">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="F326" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১০/০২/২০০২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G326" s="3" t="inlineStr">
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১১৮</t>
+          <t>১৫২৬০৬৮ ১৬১১৮</t>
         </is>
       </c>
       <c r="D327" s="4" t="inlineStr">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৯/১১/১৯৯৯</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১০৮</t>
+          <t>১৫২৬০৬৮ ১৬১০৮</t>
         </is>
       </c>
       <c r="D330" s="4" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০২/০৫/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="C343" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১০৭</t>
+          <t>১৫২৬০৬৮ ১৬১০৭</t>
         </is>
       </c>
       <c r="D343" s="4" t="inlineStr">
@@ -14847,7 +14847,7 @@
       </c>
       <c r="F343" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০১/০১/২০০১</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G343" s="3" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="F351" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১২/০৫/২০০০</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G351" s="3" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="F352" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২০/০৫/২০০০</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G352" s="3" t="inlineStr">
@@ -15309,7 +15309,7 @@
       </c>
       <c r="F354" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ২০/০৩/১৯৯৮</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G354" s="3" t="inlineStr">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="C356" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১০৫</t>
+          <t>১৫২৬০৬৮ ১৬১০৫</t>
         </is>
       </c>
       <c r="D356" s="4" t="inlineStr">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="F356" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০১/১০/২০০৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G356" s="3" t="inlineStr">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F358" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ২৩/০৯/২০০৩</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G358" s="3" t="inlineStr">
@@ -15504,7 +15504,7 @@
       </c>
       <c r="C359" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১০২</t>
+          <t>১৫২৬০৬৮ ১৬১০২</t>
         </is>
       </c>
       <c r="D359" s="4" t="inlineStr">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="F359" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১২/১২/১৯৯৯</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G359" s="3" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১২০</t>
+          <t>১৫২৬০৬৮ ১৬১২০</t>
         </is>
       </c>
       <c r="D380" s="4" t="inlineStr">
@@ -19200,7 +19200,7 @@
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১০৪</t>
+          <t>১৫২৬০৬৮ ১৬১০৪</t>
         </is>
       </c>
       <c r="D447" s="4" t="inlineStr">
@@ -19215,7 +19215,7 @@
       </c>
       <c r="F447" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ২৫/১০/২০০৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G447" s="3" t="inlineStr">
@@ -20250,7 +20250,7 @@
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১১৩</t>
+          <t>১৫২৬০৬৮ ১৬১১৩</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
@@ -20265,7 +20265,7 @@
       </c>
       <c r="F472" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১২/০৭/১৯৯৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G472" s="3" t="inlineStr">
@@ -20292,7 +20292,7 @@
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮১৬১১৯</t>
+          <t>১৫২৬০৬৮ ১৬১১৯</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
@@ -20307,7 +20307,7 @@
       </c>
       <c r="F473" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৭/০৩/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G473" s="3" t="inlineStr">
@@ -21609,7 +21609,7 @@
       </c>
       <c r="F504" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:১৫/০৩/১৯৮০</t>
+          <t>দার্জিলিং</t>
         </is>
       </c>
       <c r="G504" s="3" t="inlineStr">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="F725" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০২/০৩/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G725" s="3" t="inlineStr">
@@ -32781,10 +32781,14 @@
       </c>
       <c r="F770" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ:১০/০৫/১৯৯০</t>
-        </is>
-      </c>
-      <c r="G770" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G770" s="3" t="inlineStr">
+        <is>
+          <t>১০/০৫/১৯৯০</t>
+        </is>
+      </c>
       <c r="H770" s="5" t="inlineStr">
         <is>
           <t>জহির ফকির পাড়া, তেলিবিলা, লোহাগাড়া, চট্টগ্রাম</t>
@@ -32819,7 +32823,7 @@
       </c>
       <c r="F771" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০৩/০৫/১৯৯৩</t>
+          <t>দার্জিলিং</t>
         </is>
       </c>
       <c r="G771" s="3" t="inlineStr">
@@ -34731,7 +34735,7 @@
       </c>
       <c r="B817" s="4" t="inlineStr">
         <is>
-          <t>ছিদিক আহমেদ</t>
+          <t>ছিদ্দিক আহমেদ</t>
         </is>
       </c>
       <c r="C817" s="3" t="inlineStr">
@@ -45377,7 +45381,7 @@
       </c>
       <c r="F1070" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ২১/০৬/২০০৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1070" s="3" t="inlineStr">
@@ -49913,10 +49917,14 @@
       </c>
       <c r="F1178" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ:২০/০৭/১৯৯১</t>
-        </is>
-      </c>
-      <c r="G1178" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G1178" s="3" t="inlineStr">
+        <is>
+          <t>২০/০৭/১৯৯১</t>
+        </is>
+      </c>
       <c r="H1178" s="5" t="inlineStr">
         <is>
           <t>মাগন মিয়াজীর পাড়া, তেলিবিলা, লোহাগাড়া, চট্টগ্রাম</t>

--- a/election_votar_data/LOHAGARA/CHARAMBA/152606/152606_com_1365_male_without_photo_77_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152606/152606_com_1365_male_without_photo_77_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="31.5" customWidth="1" min="5" max="5"/>
-    <col width="38.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>মিষ্টি</t>
+          <t>মিষ্টি জন্ম তারিখ:০১/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১১০</t>
+          <t>১৫২৬০৬৮১৬১১০</t>
         </is>
       </c>
       <c r="D322" s="4" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২১/০২/২০০২</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
@@ -14034,7 +14034,7 @@
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১১২</t>
+          <t>১৫২৬০৬৮১৬১১২</t>
         </is>
       </c>
       <c r="D324" s="4" t="inlineStr">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২৪/০৪/২০০৩</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১১৫</t>
+          <t>১৫২৬০৬৮১৬১১৫</t>
         </is>
       </c>
       <c r="D325" s="4" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৮/০৫/২০০১</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="C326" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১১৬</t>
+          <t>১৫২৬০৬৮১৬১১৬</t>
         </is>
       </c>
       <c r="D326" s="4" t="inlineStr">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="F326" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/০২/২০০২</t>
         </is>
       </c>
       <c r="G326" s="3" t="inlineStr">
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১১৮</t>
+          <t>১৫২৬০৬৮১৬১১৮</t>
         </is>
       </c>
       <c r="D327" s="4" t="inlineStr">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৯/১১/১৯৯৯</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১০৮</t>
+          <t>১৫২৬০৬৮১৬১০৮</t>
         </is>
       </c>
       <c r="D330" s="4" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০২/০৫/২০০২</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="C343" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১০৭</t>
+          <t>১৫২৬০৬৮১৬১০৭</t>
         </is>
       </c>
       <c r="D343" s="4" t="inlineStr">
@@ -14847,7 +14847,7 @@
       </c>
       <c r="F343" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০১/০১/২০০১</t>
         </is>
       </c>
       <c r="G343" s="3" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="F351" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১২/০৫/২০০০</t>
         </is>
       </c>
       <c r="G351" s="3" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="F352" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২০/০৫/২০০০</t>
         </is>
       </c>
       <c r="G352" s="3" t="inlineStr">
@@ -15309,7 +15309,7 @@
       </c>
       <c r="F354" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ২০/০৩/১৯৯৮</t>
         </is>
       </c>
       <c r="G354" s="3" t="inlineStr">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="C356" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১০৫</t>
+          <t>১৫২৬০৬৮১৬১০৫</t>
         </is>
       </c>
       <c r="D356" s="4" t="inlineStr">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="F356" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০১/১০/২০০৩</t>
         </is>
       </c>
       <c r="G356" s="3" t="inlineStr">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F358" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ২৩/০৯/২০০৩</t>
         </is>
       </c>
       <c r="G358" s="3" t="inlineStr">
@@ -15504,7 +15504,7 @@
       </c>
       <c r="C359" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১০২</t>
+          <t>১৫২৬০৬৮১৬১০২</t>
         </is>
       </c>
       <c r="D359" s="4" t="inlineStr">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="F359" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১২/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="G359" s="3" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১২০</t>
+          <t>১৫২৬০৬৮১৬১২০</t>
         </is>
       </c>
       <c r="D380" s="4" t="inlineStr">
@@ -19200,7 +19200,7 @@
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১০৪</t>
+          <t>১৫২৬০৬৮১৬১০৪</t>
         </is>
       </c>
       <c r="D447" s="4" t="inlineStr">
@@ -19215,7 +19215,7 @@
       </c>
       <c r="F447" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ২৫/১০/২০০৩</t>
         </is>
       </c>
       <c r="G447" s="3" t="inlineStr">
@@ -20250,7 +20250,7 @@
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১১৩</t>
+          <t>১৫২৬০৬৮১৬১১৩</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
@@ -20265,7 +20265,7 @@
       </c>
       <c r="F472" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১২/০৭/১৯৯৩</t>
         </is>
       </c>
       <c r="G472" s="3" t="inlineStr">
@@ -20292,7 +20292,7 @@
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬০৬৮ ১৬১১৯</t>
+          <t>১৫২৬০৬৮১৬১১৯</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
@@ -20307,7 +20307,7 @@
       </c>
       <c r="F473" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৭/০৩/২০০২</t>
         </is>
       </c>
       <c r="G473" s="3" t="inlineStr">
@@ -21609,7 +21609,7 @@
       </c>
       <c r="F504" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
+          <t>দার্জিলিং জন্ম তারিখ:১৫/০৩/১৯৮০</t>
         </is>
       </c>
       <c r="G504" s="3" t="inlineStr">
@@ -30891,7 +30891,7 @@
       </c>
       <c r="F725" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০২/০৩/২০০২</t>
         </is>
       </c>
       <c r="G725" s="3" t="inlineStr">
@@ -32781,14 +32781,10 @@
       </c>
       <c r="F770" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G770" s="3" t="inlineStr">
-        <is>
-          <t>১০/০৫/১৯৯০</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ:১০/০৫/১৯৯০</t>
+        </is>
+      </c>
+      <c r="G770" s="3" t="inlineStr"/>
       <c r="H770" s="5" t="inlineStr">
         <is>
           <t>জহির ফকির পাড়া, তেলিবিলা, লোহাগাড়া, চট্টগ্রাম</t>
@@ -32823,7 +32819,7 @@
       </c>
       <c r="F771" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০৩/০৫/১৯৯৩</t>
         </is>
       </c>
       <c r="G771" s="3" t="inlineStr">
@@ -34735,7 +34731,7 @@
       </c>
       <c r="B817" s="4" t="inlineStr">
         <is>
-          <t>ছিদ্দিক আহমেদ</t>
+          <t>ছিদিক আহমেদ</t>
         </is>
       </c>
       <c r="C817" s="3" t="inlineStr">
@@ -45381,7 +45377,7 @@
       </c>
       <c r="F1070" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ২১/০৬/২০০৩</t>
         </is>
       </c>
       <c r="G1070" s="3" t="inlineStr">
@@ -49917,14 +49913,10 @@
       </c>
       <c r="F1178" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G1178" s="3" t="inlineStr">
-        <is>
-          <t>২০/০৭/১৯৯১</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ:২০/০৭/১৯৯১</t>
+        </is>
+      </c>
+      <c r="G1178" s="3" t="inlineStr"/>
       <c r="H1178" s="5" t="inlineStr">
         <is>
           <t>মাগন মিয়াজীর পাড়া, তেলিবিলা, লোহাগাড়া, চট্টগ্রাম</t>
